--- a/data/income_statement/2digits/size/15_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/15_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>15-Manufacture of leather and related products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>15-Manufacture of leather and related products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>319535.73168</v>
+        <v>369941.24841</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>305279.81265</v>
+        <v>363490.47054</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>312175.83417</v>
+        <v>359037.69034</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>320127.28642</v>
+        <v>359909.61238</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>270627.74368</v>
+        <v>319723.20549</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>264104.79759</v>
+        <v>317922.02546</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>249880.07621</v>
+        <v>338391.81487</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>352719.83824</v>
+        <v>441392.46944</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>277029.6714699999</v>
+        <v>369721.52768</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>920892.60468</v>
+        <v>1084509.4584</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1034129.47603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1276551.21539</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1256001.725</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>296005.29384</v>
+        <v>339821.15506</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>283170.73379</v>
+        <v>331057.33845</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>292162.98828</v>
+        <v>331949.02001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>300931.41057</v>
+        <v>334656.2888</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>254713.97307</v>
+        <v>298177.17569</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>242830.03476</v>
+        <v>289349.66586</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>225800.34563</v>
+        <v>305649.12808</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>324019.99479</v>
+        <v>402996.05626</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>250143.77831</v>
+        <v>329398.80004</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>819178.26587</v>
+        <v>958065.0868299999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>929899.43329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1139401.84479</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1104979.925</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>20720.79743</v>
+        <v>25148.77446</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>19357.74248</v>
+        <v>27832.28788</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>17040.40219</v>
+        <v>23201.56495</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>16667.49249</v>
+        <v>21964.75917</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>13865.2316</v>
+        <v>18072.0183</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>18912.33298</v>
+        <v>23531.80155</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>21953.28183</v>
+        <v>27457.33816</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>25743.71194</v>
+        <v>31526.88023</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>23446.48903</v>
+        <v>34360.11367</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>94316.37071999999</v>
+        <v>113097.59537</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>94981.33469999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>119380.67946</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>132458.902</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2809.64041</v>
+        <v>4971.31889</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2751.33638</v>
+        <v>4600.84421</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2972.4437</v>
+        <v>3887.10538</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2528.38336</v>
+        <v>3288.56441</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2048.53901</v>
+        <v>3474.0115</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2362.42985</v>
+        <v>5040.55805</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2126.44875</v>
+        <v>5285.34863</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2956.13151</v>
+        <v>6869.532949999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>3439.40413</v>
+        <v>5962.613969999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7397.96809</v>
+        <v>13346.7762</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9248.70804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17768.69114</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>18562.898</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3407.17389</v>
+        <v>4541.44899</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5238.96714</v>
+        <v>5941.17332</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2832.55143</v>
+        <v>3697.86058</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2551.01603</v>
+        <v>2967.60556</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2128.80653</v>
+        <v>3327.03089</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2145.23127</v>
+        <v>2587.99253</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1919.13369</v>
+        <v>2990.08075</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2385.64202</v>
+        <v>3075.13302</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2274.46256</v>
+        <v>4160.04369</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8362.24064</v>
+        <v>17916.56574</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8490.940289999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13012.70686</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>19085.122</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3037.49137</v>
+        <v>4119.33957</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4981.12197</v>
+        <v>5595.461939999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2708.24269</v>
+        <v>3518.46453</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2405.11538</v>
+        <v>2819.78188</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1941.44131</v>
+        <v>3130.27934</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2033.88174</v>
+        <v>2439.92617</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1780.45534</v>
+        <v>2770.51171</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2221.75704</v>
+        <v>2909.52004</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1902.52346</v>
+        <v>3760.50857</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7763.644810000001</v>
+        <v>10684.57405</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>7263.24147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11735.0556</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>16933</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>286.15595</v>
+        <v>338.58285</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>174.70531</v>
+        <v>251.5244</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>101.20523</v>
+        <v>146.84924</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>78.51788999999999</v>
+        <v>79.53849000000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>142.74111</v>
+        <v>151.32569</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>86.21899999999999</v>
+        <v>117.46965</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>106.0875</v>
+        <v>135.36235</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>113.54999</v>
+        <v>114.45799</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>299.44006</v>
+        <v>322.73666</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>453.06609</v>
+        <v>6179.90891</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>678.4416600000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>705.84676</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1978.41</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>83.52657000000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>83.13986</v>
+        <v>94.18697999999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>23.10351</v>
+        <v>32.54681</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>67.38275999999999</v>
+        <v>68.28519</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>44.62411</v>
+        <v>45.42586</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>25.13053</v>
+        <v>30.59671</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>32.59085</v>
+        <v>84.20669000000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>50.33499</v>
+        <v>51.15499</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>72.49904000000001</v>
+        <v>76.79845999999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>145.52974</v>
+        <v>1052.08278</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>549.25716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>571.8045</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>173.712</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>316128.5577899999</v>
+        <v>365399.79942</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>300040.84551</v>
+        <v>357549.29722</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>309343.28274</v>
+        <v>355339.82976</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>317576.27039</v>
+        <v>356942.0068200001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>268498.93715</v>
+        <v>316396.1746</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>261959.56632</v>
+        <v>315334.03293</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>247960.94252</v>
+        <v>335401.73412</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>350334.19622</v>
+        <v>438317.3364199999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>274755.20891</v>
+        <v>365561.48399</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>912530.36404</v>
+        <v>1066592.89266</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1025638.53574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1263538.50853</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1236916.603</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>265101.2136</v>
+        <v>306403.9991599999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>251919.51347</v>
+        <v>299278.77467</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>261093.18807</v>
+        <v>298922.82857</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>272566.6209500001</v>
+        <v>306450.2343300001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>228002.59882</v>
+        <v>266583.18521</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>221478.57267</v>
+        <v>264448.89663</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>209774.13216</v>
+        <v>281737.9661</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>294044.89854</v>
+        <v>363411.45224</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>232664.61137</v>
+        <v>306114.66983</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>793298.44635</v>
+        <v>926319.2151800001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>893744.53634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1094208.26444</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1055647.298</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>159717.01248</v>
+        <v>184751.71206</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>150179.31648</v>
+        <v>182755.53653</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>154076.92662</v>
+        <v>177109.20091</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>167583.4765</v>
+        <v>185540.29271</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>150337.11185</v>
+        <v>178511.55738</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>122919.14054</v>
+        <v>154930.81967</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>129180.93881</v>
+        <v>177906.42771</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>171750.68709</v>
+        <v>221364.69975</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>140896.33312</v>
+        <v>195715.67253</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>520930.67421</v>
+        <v>601510.4132000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>583911.9099399999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>708428.3399200001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>692675.966</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>95319.34963</v>
+        <v>110049.94989</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>91264.15056000001</v>
+        <v>104228.9052</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>100001.93615</v>
+        <v>112186.43403</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>92441.07986</v>
+        <v>105960.74535</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>71708.85859</v>
+        <v>80344.10618999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>94746.11615</v>
+        <v>103913.81322</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>75537.4743</v>
+        <v>95407.37851</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>114186.70376</v>
+        <v>129843.72031</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>82632.47196</v>
+        <v>99058.03276</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>252492.74846</v>
+        <v>299594.90422</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>289841.05017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>353328.35004</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>336453.406</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9003.027990000001</v>
+        <v>10374.1951</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>9434.25691</v>
+        <v>10930.9666</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6066.767970000001</v>
+        <v>8053.541380000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>12090.61827</v>
+        <v>14496.28215</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5422.11155</v>
+        <v>6987.62167</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3326.86281</v>
+        <v>4947.539839999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4193.70128</v>
+        <v>6903.24391</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7162.57039</v>
+        <v>9348.75302</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8684.546109999999</v>
+        <v>10097.07051</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>12208.72238</v>
+        <v>14870.38099</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15528.19308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>26401.5416</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>22403.131</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1061.8235</v>
+        <v>1228.14211</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1041.78952</v>
+        <v>1363.36634</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>947.5573300000001</v>
+        <v>1573.65225</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>451.44632</v>
+        <v>452.91412</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>534.51683</v>
+        <v>739.8999699999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>486.45317</v>
+        <v>656.7239000000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>862.01777</v>
+        <v>1520.91597</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>944.9373000000001</v>
+        <v>2854.27916</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>451.26018</v>
+        <v>1243.89403</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>7666.3013</v>
+        <v>10343.51677</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4463.383150000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6050.03288</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4114.795</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>51027.34419</v>
+        <v>58995.80026</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>48121.33204</v>
+        <v>58270.52254999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>48250.09467</v>
+        <v>56417.00119</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>45009.64944</v>
+        <v>50491.77249</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>40496.33833</v>
+        <v>49812.98939</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>40480.99365</v>
+        <v>50885.1363</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>38186.81036</v>
+        <v>53663.76802</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>56289.29768</v>
+        <v>74905.88418000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>42090.59754000001</v>
+        <v>59446.81415999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>119231.91769</v>
+        <v>140273.67748</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>131893.9994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>169330.24409</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>181269.305</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>43202.31505</v>
+        <v>52242.24612999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>39341.50474</v>
+        <v>48178.88515</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>38824.38369</v>
+        <v>47713.99475</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>36167.9493</v>
+        <v>44085.24696</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>34355.07111</v>
+        <v>45713.58926</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>36684.76881</v>
+        <v>47085.89578</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>33720.52256</v>
+        <v>50783.80465000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>43988.66573</v>
+        <v>66349.05912000001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>36674.0704</v>
+        <v>57227.44526</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>94816.34020000001</v>
+        <v>117804.41827</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>105718.09452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>140943.07443</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>154585.029</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>163.1085</v>
@@ -1586,226 +1572,256 @@
         <v>4.09413</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>82.27766</v>
+        <v>90.90644</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>0.58751</v>
+        <v>58.01013</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>0.46946</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4.6</v>
+        <v>33.09903</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>40.75861</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>250.00751</v>
+        <v>305.47186</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>52.90969999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>66.14564</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>69.09099999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>7835.80147</v>
+        <v>9651.477570000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>7699.765710000001</v>
+        <v>9434.70456</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>7269.43731</v>
+        <v>8375.161539999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6064.116199999999</v>
+        <v>7181.43346</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6125.43711</v>
+        <v>7793.7065</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>5836.293130000001</v>
+        <v>7204.11104</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4825.17323</v>
+        <v>7566.791699999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6356.65396</v>
+        <v>9124.998150000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4691.092799999999</v>
+        <v>7509.30798</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>20424.43478</v>
+        <v>23914.67469</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>21512.79671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>27223.31118</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>28762.724</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>35203.40508</v>
+        <v>42427.66006</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>31628.97158</v>
+        <v>38731.41314</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>31551.79532</v>
+        <v>39335.68215000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>30099.73897</v>
+        <v>36899.71937</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>28147.35634</v>
+        <v>37828.97632</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>30847.88817</v>
+        <v>39823.77461</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>28894.87987</v>
+        <v>43216.54349</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>37627.41177000001</v>
+        <v>57190.96194</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>31942.21899</v>
+        <v>49677.37867</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>74141.89791</v>
+        <v>93584.27172</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>84152.38811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>113653.61761</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>125753.214</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7825.02914</v>
+        <v>6753.55413</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>8779.827300000001</v>
+        <v>10091.6374</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>9425.71098</v>
+        <v>8703.006439999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>8841.700140000001</v>
+        <v>6406.52553</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6141.26722</v>
+        <v>4099.40013</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3796.22484</v>
+        <v>3799.240519999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4466.2878</v>
+        <v>2879.96337</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>12300.63195</v>
+        <v>8556.825060000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5416.527139999999</v>
+        <v>2219.3689</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>24415.57749</v>
+        <v>22469.25921</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>26175.90488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>28387.16966</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>26684.276</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4672.93567</v>
+        <v>10083.87481</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2323.83921</v>
+        <v>7016.395779999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2534.58639</v>
+        <v>7904.91823</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1336.95437</v>
+        <v>6003.034680000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2154.70789</v>
+        <v>6526.49508</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1852.05641</v>
+        <v>6598.85887</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2690.718440000001</v>
+        <v>12105.80379</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4643.04946</v>
+        <v>22244.04827</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3082.47569</v>
+        <v>18374.10699</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14525.80004</v>
+        <v>35142.45161</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>10653.37517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>26472.04363</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>50175.697</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>106.43591</v>
+        <v>696.40692</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>466.73524</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>22.46474</v>
+        <v>419.78751</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>44.76724</v>
+        <v>491.58292</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>34.18803</v>
+        <v>305.47317</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>51.37745</v>
+        <v>719.27383</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>220.17838</v>
+        <v>670.12443</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>99.60897</v>
+        <v>618.5842</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>158.16588</v>
+        <v>668.57484</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>519.9148</v>
+        <v>1319.7838</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>581.4103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1711.53896</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1709.653</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>46.2807</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>408.10473</v>
+        <v>1391.00857</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>235.63844</v>
+        <v>714.5788100000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>206.17556</v>
+        <v>801.66712</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>144.12794</v>
+        <v>898.2213200000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>157.90891</v>
+        <v>509.71389</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>246.4771</v>
+        <v>715.29696</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>137.23404</v>
+        <v>1743.53791</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>299.3765799999999</v>
+        <v>2948.5436</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>189.75164</v>
+        <v>2116.04828</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>488.5900999999999</v>
+        <v>1481.30193</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>830.21388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>5063.41901</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1872.674</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>4.76753</v>
@@ -1892,7 +1918,7 @@
         <v>3.9309</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>59.33015</v>
+        <v>59.40906</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>0</v>
@@ -1904,142 +1930,162 @@
         <v>9.75</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0.33429</v>
+        <v>60.47479</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>415.12844</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2.28814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>282.28813</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>46.711</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>78.51392999999999</v>
+        <v>93.57392999999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2.40219</v>
+        <v>16.35519</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>9.831379999999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6.232</v>
+        <v>15.132</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>12.5886</v>
+        <v>103.08617</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9.205</v>
+        <v>89.91292</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>316.62108</v>
+        <v>322.0948</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>108.14197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>120.11803</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5.474</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1.90044</v>
+        <v>5.65552</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1.76147</v>
+        <v>3.2139</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>11.17973</v>
+        <v>11.32573</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>24.71477</v>
+        <v>46.06135</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>6.34433</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5.37235</v>
+        <v>5.56939</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>0.89432</v>
+        <v>33.87285000000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1696.37803</v>
+        <v>1752.5935</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>22.6793</v>
+        <v>28.51186</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2.18046</v>
+        <v>280.61044</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6.00926</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>24.40605</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>78.15300000000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1372.80809</v>
+        <v>4840.032230000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1005.99512</v>
+        <v>3720.93705</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1257.5706</v>
+        <v>4610.6389</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>417.95715</v>
+        <v>1923.6478</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>983.4649899999999</v>
+        <v>2102.37299</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>796.8424399999999</v>
+        <v>1825.1922</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1536.33361</v>
+        <v>5598.81513</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1112.62544</v>
+        <v>10763.09868</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>967.3312</v>
+        <v>9106.745730000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8107.708289999999</v>
+        <v>23577.67798</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3080.52477</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9243.404540000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>29462.171</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2066,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1.30881</v>
+        <v>347.49241</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
@@ -2074,29 +2120,34 @@
       <c r="M33" s="48" t="n">
         <v>1.36279</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>668.893</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>53.45124</v>
+        <v>53.8134</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0.4923</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>21.55828</v>
+        <v>56.84078999999999</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0.30164</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>16.0347</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>1.33707</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>77.21899999999999</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2600.6731</v>
+        <v>2952.33601</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1075.94566</v>
+        <v>2106.43226</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>969.81578</v>
+        <v>1975.12708</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>546.2358</v>
+        <v>2449.08731</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>972.49999</v>
+        <v>3595.03906</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>736.00507</v>
+        <v>3292.60979</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>795.7438000000001</v>
+        <v>3998.97868</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1422.47184</v>
+        <v>6058.14212</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1734.03386</v>
+        <v>5791.820949999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4661.70189</v>
+        <v>7731.899240000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6042.08699</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10024.16905</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16254.749</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2804.64518</v>
+        <v>6676.98419</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1593.45948</v>
+        <v>4861.32086</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1244.12052</v>
+        <v>6781.73129</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1061.14305</v>
+        <v>2888.73917</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>754.1841999999999</v>
+        <v>2807.24468</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>897.92</v>
+        <v>2331.32766</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1367.27278</v>
+        <v>7379.56555</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1413.81493</v>
+        <v>12176.89135</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1348.24225</v>
+        <v>11202.27937</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11004.11288</v>
+        <v>29737.80503</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6147.38294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11045.53366</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>29221.707</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>65.76725</v>
+        <v>71.14811999999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>57.79977</v>
+        <v>244.93167</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>77.32685000000001</v>
+        <v>189.28761</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>75.79101999999999</v>
+        <v>124.6425</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>25.67906</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>18.75442</v>
+        <v>20.69518</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>30.5621</v>
+        <v>35.72260000000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7.44745</v>
+        <v>14.66571</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>34.17449</v>
+        <v>231.32458</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>344.10539</v>
+        <v>397.0867</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>155.35097</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>335.23664</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>669.38</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>693.61047</v>
+        <v>802.05013</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>385.11976</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>138.27299</v>
+        <v>304.9824</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>85.381</v>
+        <v>341.00957</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>22</v>
+        <v>399.993</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>157.1447</v>
+        <v>244.3977</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>31.78765</v>
+        <v>320.1508</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>322.97098</v>
+        <v>523.65334</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>33.20298</v>
+        <v>360.09417</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1874.8429</v>
+        <v>2003.17036</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>962.91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1824.63696</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1468.908</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2.55644</v>
+        <v>7.30209</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>9.477120000000001</v>
@@ -2294,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.8578600000000001</v>
+        <v>0.92599</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2303,58 +2379,68 @@
         <v>6.86304</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>4.70838</v>
+        <v>22.79504</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>42.21836</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>19.985</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1192.76786</v>
+        <v>4788.24675</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>650.63629</v>
+        <v>3158.48034</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>609.31704</v>
+        <v>4920.05299</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>498.22784</v>
+        <v>1865.23819</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>529.3480500000001</v>
+        <v>1796.78901</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>571.4349</v>
+        <v>1504.67676</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1026.10661</v>
+        <v>6257.29315</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>869.7369</v>
+        <v>11053.40977</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1032.0271</v>
+        <v>9591.44515</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8081.471229999999</v>
+        <v>24826.59396</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2904.14013</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6601.378</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>23435.615</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>3.79817</v>
+        <v>23.56386</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>58.33121</v>
@@ -2372,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>3.64567</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>293.36896</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>655.397</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.0007199999999999999</v>
@@ -2402,7 +2493,7 @@
         <v>0.19492</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>19.06506</v>
+        <v>21.94096</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>7.02252</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>848.70071</v>
+        <v>991.9746099999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>440.1009</v>
+        <v>1012.98633</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>413.5587200000001</v>
+        <v>1361.76337</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>371.01551</v>
+        <v>519.49968</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>167.45034</v>
+        <v>575.07686</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>150.58598</v>
+        <v>561.5580200000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>277.95856</v>
+        <v>761.82734</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>213.6596</v>
+        <v>585.1625300000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>241.97464</v>
+        <v>719.1834699999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>698.98236</v>
+        <v>2488.15635</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2117.95932</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2235.04118</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2972.422</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2584.18551</v>
+        <v>7066.052549999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1504.10047</v>
+        <v>2874.73804</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1651.61532</v>
+        <v>3085.48615</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1701.46023</v>
+        <v>3269.84548</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1369.21136</v>
+        <v>2681.38214</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1344.38807</v>
+        <v>2764.68391</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1318.13694</v>
+        <v>3772.28304</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5013.1761</v>
+        <v>12098.05197</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1923.54473</v>
+        <v>10257.07058</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8950.50416</v>
+        <v>22388.76807</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8784.1805</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>18319.93295</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>18276.351</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2524.995429999999</v>
+        <v>6699.730199999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1416.36194</v>
+        <v>2786.99951</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1531.84228</v>
+        <v>2960.81235</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1656.2996</v>
+        <v>3221.73831</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1317.57874</v>
+        <v>2629.74952</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1317.38392</v>
+        <v>2414.72771</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1300.46251</v>
+        <v>3686.15602</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4964.74366</v>
+        <v>12049.61953</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1787.34355</v>
+        <v>10108.70469</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>8689.514290000001</v>
+        <v>22072.5232</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8588.553679999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>18003.71843</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>18160.757</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>59.19008</v>
+        <v>366.32235</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>87.73853</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>119.77304</v>
+        <v>124.6738</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>45.16063</v>
+        <v>48.10717</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>51.63262</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>27.00415</v>
+        <v>349.9562</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>17.67443</v>
+        <v>86.12701999999999</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>48.43244</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>136.20118</v>
+        <v>148.36589</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>260.98987</v>
+        <v>316.24487</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>195.62682</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>316.21452</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>115.594</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>7109.13412</v>
+        <v>3094.3922</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>8006.10656</v>
+        <v>9371.974279999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9064.561530000001</v>
+        <v>6740.707230000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7416.05123</v>
+        <v>6250.97556</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6172.57955</v>
+        <v>5137.26839</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3405.97318</v>
+        <v>5302.087820000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4471.596519999999</v>
+        <v>3833.91857</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>10516.69038</v>
+        <v>6525.930010000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>5227.21585</v>
+        <v>-865.87406</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>18986.76049</v>
+        <v>5485.137720000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>21897.71661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>25493.74668</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>29361.915</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2119.12192</v>
+        <v>12938.04679</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>938.75911</v>
+        <v>2763.10311</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1126.90222</v>
+        <v>1675.94841</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2532.00758</v>
+        <v>4675.62273</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1134.85966</v>
+        <v>2147.79406</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1486.13695</v>
+        <v>2262.6324</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>799.7827900000001</v>
+        <v>7895.44599</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1568.8415</v>
+        <v>5275.88806</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1061.6389</v>
+        <v>17442.97783</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3750.5671</v>
+        <v>10838.74632</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7577.428699999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>11505.9633</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>18251.06</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>17.33065</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>57.22006</v>
+        <v>59.87969</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>1.41644</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5.36313</v>
+        <v>5.952990000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2.7902</v>
+        <v>3.35518</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>7.97671</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>0.27027</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>43.21729</v>
+        <v>91.26853999999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1e-05</v>
+        <v>0.99236</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>28.10045</v>
+        <v>109.64435</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>71.00635000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>82.73127000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>47.455</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2101.79127</v>
+        <v>12920.71614</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>881.5390500000001</v>
+        <v>2703.22342</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1125.48578</v>
+        <v>1674.53197</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2526.64445</v>
+        <v>4669.66974</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1132.06946</v>
+        <v>2144.43888</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1478.16024</v>
+        <v>2254.65569</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>799.7827900000001</v>
+        <v>7895.175720000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1525.62421</v>
+        <v>5184.619519999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1061.63889</v>
+        <v>17441.98547</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3722.46665</v>
+        <v>10729.10197</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7506.42235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>11423.23203</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>18203.605</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2978.19856</v>
+        <v>9359.99315</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2105.63435</v>
+        <v>3918.9128</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>10428.40773</v>
+        <v>14105.10122</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3718.18927</v>
+        <v>11775.4592</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1314.40143</v>
+        <v>2523.26047</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5460.61162</v>
+        <v>11530.02969</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2000.87715</v>
+        <v>3071.14942</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5847.234640000001</v>
+        <v>11677.97311</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>5978.52478</v>
+        <v>14482.11565</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8935.824050000001</v>
+        <v>19980.87861</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6070.63165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>12712.69752</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>8372.293</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>572.3751600000001</v>
+        <v>1444.60787</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>323.54611</v>
+        <v>537.6506999999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>301.8926</v>
+        <v>380.92398</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>204.86762</v>
+        <v>1641.44369</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>254.35868</v>
+        <v>344.81228</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>481.22575</v>
+        <v>510.17494</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>405.77789</v>
+        <v>702.1505599999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>480.59163</v>
+        <v>2079.97711</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>493.4792</v>
+        <v>1027.08778</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1372.37096</v>
+        <v>2191.00257</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1137.75669</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2001.44328</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1953.64</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>219.42986</v>
+        <v>401.77272</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>178.14491</v>
+        <v>230.03032</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>511.76663</v>
+        <v>596.40158</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>92.4071</v>
+        <v>92.56139</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>154.87035</v>
+        <v>158.36019</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>151.26389</v>
+        <v>497.5158500000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>773.3444599999999</v>
+        <v>790.65283</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>56.61333999999999</v>
+        <v>1297.68063</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>50.2162</v>
+        <v>451.57846</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>127.66868</v>
+        <v>365.37743</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>313.92463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>631.75363</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>145.017</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2186.39354</v>
+        <v>7513.61256</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1603.94333</v>
+        <v>3151.23178</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>9614.7485</v>
+        <v>13127.77566</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3420.91455</v>
+        <v>10041.45412</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>905.1724</v>
+        <v>2020.088</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4828.121980000001</v>
+        <v>10522.3389</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>821.7548</v>
+        <v>1578.34603</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5310.02967</v>
+        <v>8300.31537</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5434.82938</v>
+        <v>13003.44941</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7435.78441</v>
+        <v>17424.49861</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4618.95033</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>10079.50061</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6273.636</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6250.05748</v>
+        <v>6672.445839999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6839.23132</v>
+        <v>8216.16459</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-236.94398</v>
+        <v>-5688.445580000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6229.86954</v>
+        <v>-848.8609100000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5993.03778</v>
+        <v>4761.80198</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-568.50149</v>
+        <v>-3965.30947</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3270.50216</v>
+        <v>8658.21514</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6238.29724</v>
+        <v>123.84496</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>310.3299699999999</v>
+        <v>2094.98812</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>13801.50354</v>
+        <v>-3656.99457</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>23404.51366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>24287.01246</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>39240.682</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2186.97854</v>
+        <v>2759.4584</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2146.85492</v>
+        <v>2793.48972</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2322.21175</v>
+        <v>2947.23977</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2051.37941</v>
+        <v>2581.90519</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1919.45551</v>
+        <v>2555.11131</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1704.60413</v>
+        <v>2565.07551</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1742.9202</v>
+        <v>3145.33857</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2154.46966</v>
+        <v>2928.86965</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1785.42822</v>
+        <v>2816.35226</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6576.082560000001</v>
+        <v>8533.69051</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>7494.516900000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>10708.31157</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>13759.123</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4063.07894</v>
+        <v>3912.987439999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4692.3764</v>
+        <v>5422.67487</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2559.15573</v>
+        <v>-8635.68535</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>4178.49013</v>
+        <v>-3430.7661</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4073.582269999999</v>
+        <v>2206.69067</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-2273.10562</v>
+        <v>-6530.384980000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1527.58196</v>
+        <v>5512.87657</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4083.82758</v>
+        <v>-2805.02469</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-1475.09825</v>
+        <v>-721.3641400000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7225.420980000001</v>
+        <v>-12190.68508</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15909.99676</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>13578.70089</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>25481.559</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1522</v>
+        <v>1663</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1393</v>
+        <v>1549</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1302</v>
+        <v>1442</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1179</v>
+        <v>1304</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1034</v>
+        <v>1184</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>973</v>
+        <v>1134</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>905</v>
+        <v>1143</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>906</v>
+        <v>1172</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>906</v>
+        <v>1185</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1145</v>
+        <v>1488</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1682</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>